--- a/docs/ST4/ST4_01.08.24_output.xlsx
+++ b/docs/ST4/ST4_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1986 +505,2353 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731442543.6618004</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731442543.9367332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442543.6618004.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442543.9367332.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>288.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>288.65</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731442544.5250547</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731442545.0047429</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442544.5250547.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442545.0047429.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.51</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>288.68</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731442545.9652655</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731442550.285929</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442545.9652655.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442550.285929.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>288.21</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>288.03</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731442551.064414</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731442551.9859672</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442551.064414.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731442551.9859672.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>287.42</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>287.94</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731442553.4127119</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731442553.6235685</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442553.4127119.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442553.6235685.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>134.32</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.96</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731442570.9087412</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731442574.2512867</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442570.9087412.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442574.2512867.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.87</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.77</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731442575.4227877</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731442576.9323962</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442575.4227877.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442576.9323962.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.32</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>132.43</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731442578.3430238</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731442579.2094526</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442578.3430238.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442579.2094526.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.77</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>132.22</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731442581.3414736</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731442583.1716983</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442581.3414736.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442583.1716983.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6741</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6770</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>29</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731442583.6697888</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731442593.2605193</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442583.6697888.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442593.2605193.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6743.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6720.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-23</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731442596.0555491</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731442602.594534</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442596.0555491.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442602.594534.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6702</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6709</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731442605.9037948</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731442605.9037948.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+          <t>./test_images/LKOH1731442605.9037948.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6701</v>
       </c>
-      <c r="J14" t="n">
-        <v>6701</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>6687</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731442623.674519</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731442624.292396</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442623.674519.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442624.292396.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>511.55</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>512</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731442626.0590658</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731442626.8418243</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442626.0590658.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442626.8418243.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>511.25</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>512.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.450000000000045</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731442630.1753316</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731442631.838212</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442630.1753316.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442631.838212.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>511.15</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>511</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731442637.8585565</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731442639.2084064</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442637.8585565.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442639.2084064.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>505.35</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>506.1</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731442641.9570737</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731442642.7098596</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731442641.9570737.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731442642.7098596.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>233.9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>233.94</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731442660.295116</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731442661.5557127</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731442660.295116.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731442661.5557127.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>230.39</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>231.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.8100000000000023</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731442665.3948002</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731442667.8040044</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731442665.3948002.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731442667.8040044.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>230.01</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>229.74</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.2699999999999818</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731442678.8452952</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731442678.8943946</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442678.8452952.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442678.8943946.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1033.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1035.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731442686.8522592</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731442686.9011288</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442686.8522592.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442686.9011288.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1034</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1035</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731442687.41338</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731442688.1071358</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442687.41338.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442688.1071358.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1033.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1035.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731442691.9009087</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731442693.1997643</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442691.9009087.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442693.1997643.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1032.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1032.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731442694.685303</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731442697.7780352</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442694.685303.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442697.7780352.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1029.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.199999999999818</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731442698.80557</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731442699.984836</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731442698.80557.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731442699.984836.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>130.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>130.16</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731442721.8741145</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731442725.566684</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731442721.8741145.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731442725.566684.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>128.66</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>128.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731442728.3493695</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731442729.1398177</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442728.3493695.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442729.1398177.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>167.3</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>166.62</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731442735.4981494</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731442737.0588768</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442735.4981494.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442737.0588768.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>166.88</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>166.9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731442751.7975156</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731442753.1167998</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442751.7975156.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442753.1167998.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>164.92</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>164.86</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.05999999999997385</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731442753.861728</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731442755.1183674</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442753.861728.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731442755.1183674.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>164.36</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>164.74</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731442757.1649458</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731442757.6245956</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442757.1649458.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442757.6245956.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>50.72</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>50.895</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1750000000000043</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731442782.7002714</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731442782.9376326</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442782.7002714.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442782.9376326.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>50.72</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>50.74</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731442782.9888933</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731442783.425771</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442782.9888933.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442783.425771.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>50.705</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>50.74</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.03500000000000369</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731442783.732299</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731442783.732299.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+          <t>./test_images/MAGN1731442783.732299.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>50.66</v>
       </c>
-      <c r="J36" t="n">
-        <v>50.66</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.08999999999999631</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731442806.1920516</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731442806.2422743</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442806.1920516.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442806.2422743.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1414.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731442807.2805927</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731442807.4548442</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442807.2805927.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442807.4548442.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1412.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1413.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731442808.2400146</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731442809.077163</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442808.2400146.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442809.077163.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1412</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1414</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731442810.4944808</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731442812.7459376</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442810.4944808.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442812.7459376.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1411</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1411.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731442823.2466273</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731442823.5002117</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731442823.2466273.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731442823.5002117.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>61.29</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>61.24</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731442823.7174494</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731442824.3446145</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731442823.7174494.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731442824.3446145.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>61.34</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>61.34</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,1193 +2859,1418 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731442839.822307</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731442839.822307.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+          <t>./test_images/ALRS1731442839.822307.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>60.78</v>
       </c>
-      <c r="J43" t="n">
-        <v>60.78</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731442856.8207326</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731442856.8697884</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731442856.8207326.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731442856.8697884.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>57.88</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>58.05</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1699999999999946</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731442857.9621801</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731442858.2929463</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731442857.9621801.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731442858.2929463.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>57.88</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>57.99</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731442867.4116855</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731442873.4498146</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731442867.4116855.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731442873.4498146.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>57.85</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>57.18</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.6700000000000017</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731442898.8099744</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731442898.8099744.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+          <t>./test_images/SOFL1731442898.8099744.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>143.66</v>
       </c>
-      <c r="J47" t="n">
-        <v>143.66</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731442905.580153</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731442906.6308777</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442905.580153.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442906.6308777.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>21.475</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>21.354</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1210000000000022</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731442909.196304</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731442910.4707205</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442909.196304.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442910.4707205.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>21.479</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>21.276</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2029999999999994</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731442928.6885204</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731442931.5146832</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442928.6885204.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442931.5146832.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>20.812</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>20.842</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02999999999999758</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731442950.971852</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731442951.0227087</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731442950.971852.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731442951.0227087.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>680.05</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>680.2</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1500000000000909</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731442952.1195092</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731442955.9484322</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731442952.1195092.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731442955.9484322.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>679.55</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>678.55</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731442958.5908535</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731442958.5908535.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+          <t>./test_images/SIBN1731442958.5908535.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>677.65</v>
       </c>
-      <c r="J53" t="n">
-        <v>677.65</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.550000000000068</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731442961.9607499</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731442962.049504</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442961.9607499.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442962.049504.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>379.23</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>378.22</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.009999999999991</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731442972.8396678</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731442980.0166662</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731442972.8396678.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/FEES1731442980.0166662.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>0.10036</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.10082</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.0004600000000000021</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731442987.8794508</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731442989.073228</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731442987.8794508.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731442989.073228.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.999999999999225e-05</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731443015.184904</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731443016.3326113</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443015.184904.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443016.3326113.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.6039</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.00109999999999999</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731443017.2442589</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731443018.781472</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443017.2442589.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443018.781472.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.6019</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.6023000000000001</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.000400000000000067</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731443021.4676938</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731443021.7284439</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443021.4676938.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443021.7284439.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>3036.2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>3038.15</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-1.950000000000273</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731443027.0027232</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731443027.2871137</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443027.0027232.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443027.2871137.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>3026</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>3026.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.8000000000001819</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731443030.4588585</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731443031.1416519</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443030.4588585.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443031.1416519.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>3027.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>3025.2</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731443032.0799546</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731443032.6603198</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443032.0799546.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443032.6603198.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>3022.9</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>3022.2</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.7000000000002728</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731443033.32361</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731443034.7647538</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443033.32361.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443034.7647538.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>3015.75</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>3020.15</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>4.400000000000091</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731443035.8446321</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731443037.6111465</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443035.8446321.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443037.6111465.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>3016.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>10.94999999999982</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731443041.0867789</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731443050.61903</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443041.0867789.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443050.61903.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>3010.35</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>2996.6</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-13.75</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731443067.4112651</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731443068.034762</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443067.4112651.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443068.034762.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>34.605</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>34.685</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731443071.2399423</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731443071.2399423.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+          <t>./test_images/RUAL1731443071.2399423.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>34.545</v>
       </c>
-      <c r="J67" t="n">
-        <v>34.545</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+      <c r="L67" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +4284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3706,6 +4313,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3722,6 +4339,12 @@
       <c r="D2" t="n">
         <v>-0.3214285714286364</v>
       </c>
+      <c r="E2" t="n">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3738,6 +4361,12 @@
       <c r="D3" t="n">
         <v>1.239999999999964</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3754,6 +4383,12 @@
       <c r="D4" t="n">
         <v>0.2450000000000045</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3770,6 +4405,12 @@
       <c r="D5" t="n">
         <v>1.099999999999966</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3786,6 +4427,12 @@
       <c r="D6" t="n">
         <v>0.2049999999999983</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3802,6 +4449,12 @@
       <c r="D7" t="n">
         <v>0.1399999999999864</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3818,6 +4471,12 @@
       <c r="D8" t="n">
         <v>0.6250000000000142</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.4899999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3826,13 +4485,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>3.25</v>
+        <v>-0.25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.01999999999999996</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -3842,13 +4507,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2300000000000111</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05750000000000277</v>
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3866,6 +4537,12 @@
       <c r="D11" t="n">
         <v>0.1179999999999997</v>
       </c>
+      <c r="E11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3874,13 +4551,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.8499999999999091</v>
+        <v>0.7000000000001592</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.283333333333303</v>
+        <v>0.2333333333333864</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
@@ -3898,6 +4581,12 @@
       <c r="D13" t="n">
         <v>-0.1300000000000026</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3914,6 +4603,12 @@
       <c r="D14" t="n">
         <v>0.1666666666666761</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3922,13 +4617,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04999999999999716</v>
+        <v>-0.05000000000000426</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01666666666666572</v>
+        <v>-0.01666666666666809</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="16">
@@ -3946,6 +4647,12 @@
       <c r="D16" t="n">
         <v>0.0007500000000000284</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3954,13 +4661,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0800000000000054</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0400000000000027</v>
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.1200000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="18">
@@ -3978,6 +4691,12 @@
       <c r="D18" t="n">
         <v>0.09000000000000341</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3994,6 +4713,12 @@
       <c r="D19" t="n">
         <v>-0.0002200000000000049</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.4399999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4010,6 +4735,12 @@
       <c r="D20" t="n">
         <v>1.009999999999991</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4018,13 +4749,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.6800000000000068</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="22">
@@ -4040,6 +4777,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
